--- a/data/trans_orig/DUR_SUEÑO_LABORAL-Clase-trans_orig.xlsx
+++ b/data/trans_orig/DUR_SUEÑO_LABORAL-Clase-trans_orig.xlsx
@@ -521,7 +521,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Promedio de horas de sueño/laboral</t>
+          <t>Promedio de horas de sueño/laboral (tasa de respuesta: 98,62%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/DUR_SUEÑO_LABORAL-Clase-trans_orig.xlsx
+++ b/data/trans_orig/DUR_SUEÑO_LABORAL-Clase-trans_orig.xlsx
@@ -601,7 +601,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>7,09</t>
+          <t>7,12</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -611,7 +611,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7,11</t>
+          <t>7,15</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -621,7 +621,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>7,1</t>
+          <t>7,14</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -639,27 +639,27 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,96; 7,21</t>
+          <t>7,01; 7,23</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,89; 7,1</t>
+          <t>6,88; 7,08</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,03; 7,2</t>
+          <t>7,03; 7,25</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,85; 7,06</t>
+          <t>6,87; 7,06</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,02; 7,18</t>
+          <t>7,06; 7,22</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>7,0</t>
+          <t>7,07</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>7,11</t>
+          <t>7,15</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -719,27 +719,27 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,11; 7,41</t>
+          <t>7,11; 7,4</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,03; 7,24</t>
+          <t>7,03; 7,25</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,85; 7,14</t>
+          <t>6,95; 7,21</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,87; 7,1</t>
+          <t>6,86; 7,09</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,0; 7,22</t>
+          <t>7,06; 7,25</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -761,7 +761,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7,06</t>
+          <t>6,94</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -771,7 +771,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7,07</t>
+          <t>7,16</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -781,7 +781,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>7,06</t>
+          <t>6,99</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -799,32 +799,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,94; 7,2</t>
+          <t>6,78; 7,06</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,75; 7,81</t>
+          <t>6,75; 7,84</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,83; 7,3</t>
+          <t>6,94; 7,4</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,77; 7,14</t>
+          <t>6,77; 7,13</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,95; 7,18</t>
+          <t>6,87; 7,11</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,81; 7,79</t>
+          <t>6,81; 7,78</t>
         </is>
       </c>
     </row>
@@ -841,7 +841,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7,15</t>
+          <t>7,21</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6,98</t>
+          <t>6,97</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -861,7 +861,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>7,06</t>
+          <t>7,09</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -879,32 +879,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,03; 7,28</t>
+          <t>7,1; 7,32</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,03; 7,26</t>
+          <t>7,03; 7,25</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,87; 7,12</t>
+          <t>6,82; 7,11</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,25; 6,94</t>
+          <t>6,28; 6,94</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,98; 7,15</t>
+          <t>7,0; 7,19</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,48; 7,07</t>
+          <t>6,42; 7,05</t>
         </is>
       </c>
     </row>
@@ -921,7 +921,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>7,15</t>
+          <t>7,13</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -931,7 +931,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>6,88</t>
+          <t>6,94</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>6,97</t>
+          <t>7,01</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -959,32 +959,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>6,94; 7,35</t>
+          <t>6,9; 7,35</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,88; 7,29</t>
+          <t>6,88; 7,26</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,72; 7,03</t>
+          <t>6,78; 7,12</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,88; 7,09</t>
+          <t>6,89; 7,1</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,84; 7,08</t>
+          <t>6,88; 7,14</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,93; 7,12</t>
+          <t>6,92; 7,11</t>
         </is>
       </c>
     </row>
@@ -1001,7 +1001,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>7,5</t>
+          <t>7,3</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>7,14</t>
+          <t>7,26</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1021,7 +1021,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>7,22</t>
+          <t>7,27</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1039,32 +1039,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>7,27; 7,69</t>
+          <t>7,06; 7,54</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>7,23; 7,86</t>
+          <t>7,24; 7,85</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>6,96; 7,29</t>
+          <t>7,1; 7,42</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>7,11; 7,31</t>
+          <t>7,1; 7,32</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>7,08; 7,36</t>
+          <t>7,14; 7,41</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>7,18; 7,41</t>
+          <t>7,2; 7,42</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>7,02</t>
+          <t>7,08</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>7,08</t>
+          <t>7,11</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1119,27 +1119,27 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>7,09; 7,2</t>
+          <t>7,08; 7,2</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>7,08; 7,49</t>
+          <t>7,08; 7,46</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,97; 7,08</t>
+          <t>7,01; 7,14</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>6,68; 7,04</t>
+          <t>6,59; 7,04</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>7,03; 7,12</t>
+          <t>7,06; 7,15</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">

--- a/data/trans_orig/DUR_SUEÑO_LABORAL-Clase-trans_orig.xlsx
+++ b/data/trans_orig/DUR_SUEÑO_LABORAL-Clase-trans_orig.xlsx
@@ -549,32 +549,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
         </is>
       </c>
     </row>
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>7,01</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
           <t>7,12</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>6,99</t>
-        </is>
-      </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
+          <t>6,95</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>7,15</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>6,96</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>6,98</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>7,14</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>6,98</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>6,91; 7,1</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
           <t>7,01; 7,23</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>6,88; 7,08</t>
-        </is>
-      </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
+          <t>6,86; 7,05</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>7,03; 7,25</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>6,87; 7,06</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>6,91; 7,06</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>7,06; 7,22</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>6,9; 7,05</t>
         </is>
       </c>
     </row>
@@ -681,32 +681,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>7,16</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
           <t>7,25</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>7,14</t>
-        </is>
-      </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
+          <t>6,97</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>7,07</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>6,99</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>7,07</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>7,15</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>7,07</t>
         </is>
       </c>
     </row>
@@ -719,32 +719,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>7,04; 7,26</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
           <t>7,11; 7,4</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>7,03; 7,25</t>
-        </is>
-      </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
+          <t>6,86; 7,07</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>6,95; 7,21</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>6,86; 7,09</t>
-        </is>
-      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>7,0; 7,15</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>7,06; 7,25</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>6,99; 7,15</t>
         </is>
       </c>
     </row>
@@ -761,32 +761,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>6,88</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
           <t>6,94</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>7,43</t>
-        </is>
-      </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
+          <t>6,95</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>7,16</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>6,95</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>6,9</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>6,99</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>7,35</t>
         </is>
       </c>
     </row>
@@ -799,32 +799,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>6,73; 7,03</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
           <t>6,78; 7,06</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>6,75; 7,84</t>
-        </is>
-      </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
+          <t>6,79; 7,12</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>6,94; 7,4</t>
         </is>
       </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>6,77; 7,13</t>
-        </is>
-      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>6,78; 7,01</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>6,87; 7,11</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>6,81; 7,78</t>
         </is>
       </c>
     </row>
@@ -841,32 +841,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>7,15</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
           <t>7,21</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>7,14</t>
-        </is>
-      </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
+          <t>6,91</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>6,97</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>6,61</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>7,04</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>7,09</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>6,85</t>
         </is>
       </c>
     </row>
@@ -879,32 +879,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>7,05; 7,24</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
           <t>7,1; 7,32</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>7,03; 7,25</t>
-        </is>
-      </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
+          <t>6,82; 7,01</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>6,82; 7,11</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>6,28; 6,94</t>
-        </is>
-      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
+          <t>6,97; 7,11</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>7,0; 7,19</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>6,42; 7,05</t>
         </is>
       </c>
     </row>
@@ -921,27 +921,27 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>7,06</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
           <t>7,13</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>7,06</t>
-        </is>
-      </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
+          <t>6,99</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>6,94</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>6,99</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>7,01</t>
+          <t>7,02</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -959,32 +959,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>6,9; 7,21</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
           <t>6,9; 7,35</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>6,88; 7,26</t>
-        </is>
-      </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
+          <t>6,88; 7,09</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>6,78; 7,12</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>6,89; 7,1</t>
-        </is>
-      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
+          <t>6,91; 7,11</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>6,88; 7,14</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>6,92; 7,11</t>
         </is>
       </c>
     </row>
@@ -1001,32 +1001,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>7,59</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
           <t>7,3</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>7,59</t>
-        </is>
-      </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
+          <t>7,24</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>7,26</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>7,21</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
+          <t>7,32</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>7,27</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>7,31</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1039,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>7,28; 7,83</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
           <t>7,06; 7,54</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>7,24; 7,85</t>
-        </is>
-      </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
+          <t>7,13; 7,35</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>7,1; 7,42</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>7,1; 7,32</t>
-        </is>
-      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
+          <t>7,21; 7,42</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>7,14; 7,41</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>7,2; 7,42</t>
         </is>
       </c>
     </row>
@@ -1081,32 +1081,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>7,11</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
           <t>7,14</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>7,21</t>
-        </is>
-      </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
+          <t>7,02</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>7,08</t>
         </is>
       </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>6,92</t>
-        </is>
-      </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
+          <t>7,07</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>7,11</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>7,06</t>
         </is>
       </c>
     </row>
@@ -1119,32 +1119,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>7,06; 7,17</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
           <t>7,08; 7,2</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>7,08; 7,46</t>
-        </is>
-      </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
+          <t>6,97; 7,07</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
           <t>7,01; 7,14</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>6,59; 7,04</t>
-        </is>
-      </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
+          <t>7,03; 7,1</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>7,06; 7,15</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>6,91; 7,21</t>
         </is>
       </c>
     </row>
